--- a/Offline/BusinessManagement/Communications_Teach@anodiam/SpokenEnglishSyllabus.xlsx
+++ b/Offline/BusinessManagement/Communications_Teach@anodiam/SpokenEnglishSyllabus.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Communications_Teach@anodiam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\Communications_Teach@anodiam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD73198-9475-4BB6-9D9B-3833959C5D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>The syllabus for spoken English can vary depending on the specific goals and requirements of the course or program. However, here is a general outline that can be adapted and expanded based on the proficiency level and objectives of the learners:</t>
   </si>
@@ -196,12 +195,15 @@
   </si>
   <si>
     <t>Sl #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Alliteration &amp; Assonance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,21 +514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -534,273 +539,278 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>54</v>
       </c>
     </row>
